--- a/Semester 1/Discrete Wiskunde/excel/Velden/05.xlsx
+++ b/Semester 1/Discrete Wiskunde/excel/Velden/05.xlsx
@@ -48,6 +48,548 @@
     <t>aantal elementen = 2016</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>2*3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>4*3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>8*3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>16*3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>32*3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>2*9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>4*9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>8*9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>16*9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>32*9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*3*2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*3*4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*3*8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*3*16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*3*32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*9*2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*9*4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*9*8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*9*16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7*9*32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kleinste primitieve wortel = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="9"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>2016 = 2</t>
     </r>
@@ -68,7 +610,7 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> *3</t>
+      <t xml:space="preserve"> * 3</t>
     </r>
     <r>
       <rPr>
@@ -87,549 +629,7 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> *7</t>
-    </r>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>2*3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4*3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>8*3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>16*3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>32*3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>2*9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4*9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>8*9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>16*9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>32*9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*3*2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*3*4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*3*8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*3*16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*3*32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*9*2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*9*4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*9*8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*9*16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>7*9*32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kleinste primitieve wortel = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="9"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
+      <t xml:space="preserve"> * 7</t>
     </r>
   </si>
 </sst>
@@ -710,16 +710,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1002,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -1014,7 +1017,8 @@
     <col min="4" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="1"/>
@@ -1038,39 +1042,39 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
         <v>2</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="L3" s="4">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="L3" s="6">
         <v>3</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="P3" s="4">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="P3" s="6">
         <v>4</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="T3" s="4">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="T3" s="7">
         <v>5</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1119,13 +1123,13 @@
     </row>
     <row r="5" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <f>MOD(H4*H4,$A$2)</f>
@@ -1178,13 +1182,13 @@
     </row>
     <row r="6" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ref="H6:H9" si="0">MOD(H5*H5,$A$2)</f>
@@ -1211,7 +1215,7 @@
         <v>670</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P9" si="4">MOD(P5*P5,$A$2)</f>
+        <f t="shared" ref="P6:P7" si="4">MOD(P5*P5,$A$2)</f>
         <v>256</v>
       </c>
       <c r="Q6" s="1">
@@ -1223,7 +1227,7 @@
         <v>817</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" ref="T6:T9" si="6">MOD(T5*T5,$A$2)</f>
+        <f t="shared" ref="T6:T7" si="6">MOD(T5*T5,$A$2)</f>
         <v>625</v>
       </c>
       <c r="U6" s="1">
@@ -1237,13 +1241,13 @@
     </row>
     <row r="7" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
@@ -1296,13 +1300,13 @@
     </row>
     <row r="8" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
@@ -1355,13 +1359,13 @@
     </row>
     <row r="9" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
@@ -1388,7 +1392,7 @@
         <v>1879</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" ref="P9:P12" si="8">MOD(P8*P8,$A$2)</f>
+        <f t="shared" ref="P9" si="8">MOD(P8*P8,$A$2)</f>
         <v>1382</v>
       </c>
       <c r="Q9" s="1">
@@ -1400,7 +1404,7 @@
         <v>1200</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" ref="T9:T12" si="9">MOD(T8*T8,$A$2)</f>
+        <f t="shared" ref="T9" si="9">MOD(T8*T8,$A$2)</f>
         <v>50</v>
       </c>
       <c r="U9" s="1">
@@ -1414,13 +1418,13 @@
     </row>
     <row r="11" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1">
         <f>MOD(H4*H4*H4*H4*H4*H4*H4,$A$2)</f>
@@ -1473,13 +1477,13 @@
     </row>
     <row r="12" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="1">
         <f>MOD(H11*H11,$A$2)</f>
@@ -1532,13 +1536,13 @@
     </row>
     <row r="13" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ref="H13:H16" si="10">MOD(H12*H12,$A$2)</f>
@@ -1591,13 +1595,13 @@
     </row>
     <row r="14" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="10"/>
@@ -1639,24 +1643,24 @@
         <f t="shared" si="19"/>
         <v>284</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="4">
         <f t="shared" si="20"/>
         <v>1252</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="4">
         <f t="shared" si="21"/>
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="10"/>
@@ -1698,24 +1702,24 @@
         <f t="shared" si="19"/>
         <v>1993</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="4">
         <f t="shared" si="20"/>
         <v>295</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="4">
         <f t="shared" si="21"/>
         <v>2016</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="29.25" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="10"/>
@@ -1757,22 +1761,22 @@
         <f t="shared" si="19"/>
         <v>576</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="4">
         <f t="shared" si="20"/>
         <v>294</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
